--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC76-EQUIPO BASICO 4.5 # 2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC76-EQUIPO BASICO 4.5 # 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS COMPARTIDOS ORTOMAX BODEGA\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4DCE6-01E1-4472-B764-5F3ED77C8BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91407D5D-FA7C-4851-ABBF-2136F8ED47CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22D5487D-9EB2-4B6F-9637-63EC1217A879}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>SEPARADORES HOMMAN CURVOS</t>
   </si>
   <si>
-    <t>PINZAVERBRUGUER ARANDELA</t>
-  </si>
-  <si>
     <t>PINZA EN PUNTA GRANDE</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>DISECTOR DE COOB</t>
+  </si>
+  <si>
+    <t>PINZA VERBRUGUER ARANDELA</t>
   </si>
 </sst>
 </file>
@@ -579,9 +579,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -619,7 +619,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -725,7 +725,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -867,7 +867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BA2A0C-7C45-454D-9F00-2EDE2C571129}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
